--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -235,6 +235,48 @@
   </si>
   <si>
     <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>SETTING</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SETTING_VIBRATION</t>
+  </si>
+  <si>
+    <t>射击震动</t>
+  </si>
+  <si>
+    <t>VIBRATION</t>
+  </si>
+  <si>
+    <t>SETTING_MUSIC</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>SETTING_SOUND</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>SETTING_LANGUAGE</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
   </si>
 </sst>
 </file>
@@ -242,8 +284,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -277,7 +319,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +348,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +382,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,41 +419,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,21 +435,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -392,19 +442,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,31 +457,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,85 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,61 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,8 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,11 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,35 +707,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,151 +739,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1859,6 +1901,181 @@
       </c>
       <c r="K18" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>GAME_END_BONUS</t>
+  </si>
+  <si>
+    <t>神秘大奖</t>
+  </si>
+  <si>
+    <t>BONUS</t>
   </si>
 </sst>
 </file>
@@ -305,6 +314,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -315,21 +331,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,9 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,9 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,41 +388,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +413,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -435,14 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,13 +466,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,19 +580,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,67 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,73 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,8 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +684,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,21 +718,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -726,173 +744,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2076,6 +2085,41 @@
       </c>
       <c r="K23" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
-    <t>id(vertical)</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ko</t>
   </si>
   <si>
     <t>string</t>
@@ -27,31 +51,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>描述行，请忽略</t>
+    <t>描述列，请忽略</t>
   </si>
   <si>
     <t>中文（中华人民共和国）</t>
@@ -78,10 +78,10 @@
     <t>韩语</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>LANGUAGE_NAME</t>
+  </si>
+  <si>
+    <t>多语言名，勿删</t>
   </si>
   <si>
     <t>简体中文</t>
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -321,29 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,23 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,21 +351,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -419,9 +381,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +427,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -443,17 +450,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,17 +684,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,22 +719,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,145 +760,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1265,860 +1265,823 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:K24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="30.1442307692308" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4903846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.0961538461538" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.0769230769231" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5384615384615" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.1538461538462" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.2980769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5865384615385" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2980769230769" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1538461538462" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5865384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="16" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="16" spans="3:11">
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="4" ht="16" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>89</v>
       </c>
     </row>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="28720" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,24 @@
     <t>升级</t>
   </si>
   <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>GAIN</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
     <t>LEVEL_MAX</t>
   </si>
   <si>
@@ -183,6 +201,15 @@
     <t>You lose.</t>
   </si>
   <si>
+    <t>REVIVE_IMMEDIATELY</t>
+  </si>
+  <si>
+    <t>立即复活</t>
+  </si>
+  <si>
+    <t>REVIVE NOW</t>
+  </si>
+  <si>
     <t>REMAIN_VIRUS_COUNT</t>
   </si>
   <si>
@@ -192,6 +219,15 @@
     <t>Remain:</t>
   </si>
   <si>
+    <t>BOSS_WAVE_COMING</t>
+  </si>
+  <si>
+    <t>大波怪物来袭</t>
+  </si>
+  <si>
+    <t>BOSS WAVE</t>
+  </si>
+  <si>
     <t>SLIDE_TO_START</t>
   </si>
   <si>
@@ -228,15 +264,21 @@
     <t>Function Locked</t>
   </si>
   <si>
+    <t>RECEIVE_REWRAD</t>
+  </si>
+  <si>
+    <t>领取奖励</t>
+  </si>
+  <si>
+    <t>REWARD</t>
+  </si>
+  <si>
     <t>CLICK_TO_RECEIVE</t>
   </si>
   <si>
     <t>点击领取</t>
   </si>
   <si>
-    <t>RECEIVE</t>
-  </si>
-  <si>
     <t>SETTING</t>
   </si>
   <si>
@@ -286,6 +328,228 @@
   </si>
   <si>
     <t>BONUS</t>
+  </si>
+  <si>
+    <t>ALREADY_LEVEL_MAX</t>
+  </si>
+  <si>
+    <t>已经升至满级</t>
+  </si>
+  <si>
+    <t>UPGRADE_LACK_OF_COIN</t>
+  </si>
+  <si>
+    <t>升级所需金币不足</t>
+  </si>
+  <si>
+    <t>UPGRADE_LACK_OF_DIAMOND</t>
+  </si>
+  <si>
+    <t>升级所需钻石不足</t>
+  </si>
+  <si>
+    <t>CANNOT_EXCEED_FIRE_SPEED_LEVEL</t>
+  </si>
+  <si>
+    <t>不能超过主武器射速等级</t>
+  </si>
+  <si>
+    <t>CANNOT_EXCEED_FIRE_POWER_LEVEL</t>
+  </si>
+  <si>
+    <t>不能超过主武器火力等级</t>
+  </si>
+  <si>
+    <t>NOT_REACH_WEAPON_UNLOCK_GAME_LEVEL</t>
+  </si>
+  <si>
+    <t>未达到武器解锁关卡</t>
+  </si>
+  <si>
+    <t>EXCHANGE_DIAMOND_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>钻石不足兑换</t>
+  </si>
+  <si>
+    <t>GAME_LEVEL_LOCKED</t>
+  </si>
+  <si>
+    <t>关卡尚未解锁</t>
+  </si>
+  <si>
+    <t>GAME_LEVEL_INVALID</t>
+  </si>
+  <si>
+    <t>无效关卡</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_ALREADY_SIGNED</t>
+  </si>
+  <si>
+    <t>今日已签到</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_CANT_SIGN</t>
+  </si>
+  <si>
+    <t>不能签到</t>
+  </si>
+  <si>
+    <t>VIRUS_LOCKED</t>
+  </si>
+  <si>
+    <t>怪物尚未解锁</t>
+  </si>
+  <si>
+    <t>VIRUS_COLLECT_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>怪物数量不足收集</t>
+  </si>
+  <si>
+    <t>BOOK_COLLECT_COUNT</t>
+  </si>
+  <si>
+    <t>收集进度</t>
+  </si>
+  <si>
+    <t>COIN_VALUE</t>
+  </si>
+  <si>
+    <t>金币价值</t>
+  </si>
+  <si>
+    <t>COIN_INCOME</t>
+  </si>
+  <si>
+    <t>几比收益</t>
+  </si>
+  <si>
+    <t>AD_PLAY_FAILED</t>
+  </si>
+  <si>
+    <t>广告播放失败</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN</t>
+  </si>
+  <si>
+    <t>每日签到</t>
+  </si>
+  <si>
+    <t>VIRUS_BOOK</t>
+  </si>
+  <si>
+    <t>怪物图鉴</t>
+  </si>
+  <si>
+    <t>WEAPON_SYSTEM</t>
+  </si>
+  <si>
+    <t>武器系统</t>
+  </si>
+  <si>
+    <t>UNLOCK_SYSTEM_X</t>
+  </si>
+  <si>
+    <t>已解锁【{0}】</t>
+  </si>
+  <si>
+    <t>UNLOCK_WEAPON_X</t>
+  </si>
+  <si>
+    <t>已解锁武器【{0}】</t>
+  </si>
+  <si>
+    <t>WEAPON_USING</t>
+  </si>
+  <si>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>WEAPON_READY</t>
+  </si>
+  <si>
+    <t>就绪</t>
+  </si>
+  <si>
+    <t>WEAPON_UNLOCK_ON_GAME_LEVEL_X</t>
+  </si>
+  <si>
+    <t>关卡{0}解锁</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_BTN_SIGN</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_BTN_REWRADS</t>
+  </si>
+  <si>
+    <t>双倍奖励</t>
+  </si>
+  <si>
+    <t>COIN_SHOP</t>
+  </si>
+  <si>
+    <t>金币商店</t>
+  </si>
+  <si>
+    <t>COIN_EXCHANGE</t>
+  </si>
+  <si>
+    <t>金币兑换</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>VIRUS_UNKNOWN</t>
+  </si>
+  <si>
+    <t>未收录</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_CAN_RECEIVE</t>
+  </si>
+  <si>
+    <t>可领取</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_RECEIVED</t>
+  </si>
+  <si>
+    <t>已领取</t>
+  </si>
+  <si>
+    <t>VIRUS_TRIANGLE_NAME</t>
+  </si>
+  <si>
+    <t>普通病毒</t>
+  </si>
+  <si>
+    <t>VIRUS_TRIANGLE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>普通病毒描述</t>
+  </si>
+  <si>
+    <t>VIRUS_TRIANGLE_TIPS</t>
+  </si>
+  <si>
+    <t>普通病毒小提示</t>
+  </si>
+  <si>
+    <t>WEAPON_NORMAL_NAME</t>
+  </si>
+  <si>
+    <t>基础武器</t>
   </si>
 </sst>
 </file>
@@ -293,10 +557,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -321,14 +585,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +615,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -350,15 +629,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -374,6 +645,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -382,14 +669,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,45 +720,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,7 +730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +796,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,37 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,109 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,10 +950,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -699,6 +961,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -734,15 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,145 +1024,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1265,15 +1529,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30.1442307692308" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
@@ -1291,7 +1555,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1484,605 +1747,1981 @@
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:10">
+      <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>89</v>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="13200"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="412">
   <si>
     <t>id</t>
   </si>
@@ -264,7 +264,7 @@
     <t>Function Locked</t>
   </si>
   <si>
-    <t>RECEIVE_REWRAD</t>
+    <t>RECEIVE_REWARD</t>
   </si>
   <si>
     <t>领取奖励</t>
@@ -336,42 +336,63 @@
     <t>已经升至满级</t>
   </si>
   <si>
+    <t>FULLY UPGRADED</t>
+  </si>
+  <si>
     <t>UPGRADE_LACK_OF_COIN</t>
   </si>
   <si>
     <t>升级所需金币不足</t>
   </si>
   <si>
+    <t>INSUFFICIENT COIN</t>
+  </si>
+  <si>
     <t>UPGRADE_LACK_OF_DIAMOND</t>
   </si>
   <si>
     <t>升级所需钻石不足</t>
   </si>
   <si>
+    <t>INSUFFICIENT DIAMOND</t>
+  </si>
+  <si>
     <t>CANNOT_EXCEED_FIRE_SPEED_LEVEL</t>
   </si>
   <si>
     <t>不能超过主武器射速等级</t>
   </si>
   <si>
+    <t>CANNOT EXCEED THE RATE OF FIRE OF THE MAIN WEAPON</t>
+  </si>
+  <si>
     <t>CANNOT_EXCEED_FIRE_POWER_LEVEL</t>
   </si>
   <si>
     <t>不能超过主武器火力等级</t>
   </si>
   <si>
+    <t>CANNOT EXCEED THE FIRE LEVEL OF THE MAIN WEAPON</t>
+  </si>
+  <si>
     <t>NOT_REACH_WEAPON_UNLOCK_GAME_LEVEL</t>
   </si>
   <si>
     <t>未达到武器解锁关卡</t>
   </si>
   <si>
+    <t>LOCKED</t>
+  </si>
+  <si>
     <t>EXCHANGE_DIAMOND_NOT_ENOUGH</t>
   </si>
   <si>
     <t>钻石不足兑换</t>
   </si>
   <si>
+    <t>INSUFFICIENT DIAMONDS</t>
+  </si>
+  <si>
     <t>GAME_LEVEL_LOCKED</t>
   </si>
   <si>
@@ -384,46 +405,70 @@
     <t>无效关卡</t>
   </si>
   <si>
+    <t>INVALID LEVEL</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_ALREADY_SIGNED</t>
   </si>
   <si>
     <t>今日已签到</t>
   </si>
   <si>
+    <t>SIGNED IN</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_CANT_SIGN</t>
   </si>
   <si>
     <t>不能签到</t>
   </si>
   <si>
+    <t>CANNOT SIGN IN</t>
+  </si>
+  <si>
     <t>VIRUS_LOCKED</t>
   </si>
   <si>
     <t>怪物尚未解锁</t>
   </si>
   <si>
+    <t>ALIEN HAS NOT DISCOVERED</t>
+  </si>
+  <si>
     <t>VIRUS_COLLECT_NOT_ENOUGH</t>
   </si>
   <si>
     <t>怪物数量不足收集</t>
   </si>
   <si>
+    <t>INSUFFICIENT ALIIENS COLLECTION</t>
+  </si>
+  <si>
     <t>BOOK_COLLECT_COUNT</t>
   </si>
   <si>
     <t>收集进度</t>
   </si>
   <si>
+    <t>COLLECTION PROGRESS</t>
+  </si>
+  <si>
     <t>COIN_VALUE</t>
   </si>
   <si>
     <t>金币价值</t>
   </si>
   <si>
+    <t>GOLD VALUE</t>
+  </si>
+  <si>
     <t>COIN_INCOME</t>
   </si>
   <si>
-    <t>几比收益</t>
+    <t>金币收益</t>
+  </si>
+  <si>
+    <t>GOLD INCOME</t>
   </si>
   <si>
     <t>AD_PLAY_FAILED</t>
@@ -432,78 +477,171 @@
     <t>广告播放失败</t>
   </si>
   <si>
+    <t>VIDEO PLAY FAILURE</t>
+  </si>
+  <si>
     <t>DAILY_SIGN</t>
   </si>
   <si>
     <t>每日签到</t>
   </si>
   <si>
+    <t>DAILY SIGN IN</t>
+  </si>
+  <si>
     <t>VIRUS_BOOK</t>
   </si>
   <si>
     <t>怪物图鉴</t>
   </si>
   <si>
+    <t>BOOK OF ALIENS</t>
+  </si>
+  <si>
     <t>WEAPON_SYSTEM</t>
   </si>
   <si>
     <t>武器系统</t>
   </si>
   <si>
+    <t>WEAPON SYSTEM</t>
+  </si>
+  <si>
     <t>UNLOCK_SYSTEM_X</t>
   </si>
   <si>
     <t>已解锁【{0}】</t>
   </si>
   <si>
+    <t>UNLOCKED [{0}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{1}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{2}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{3}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{4}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{5}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{6}]</t>
+  </si>
+  <si>
     <t>UNLOCK_WEAPON_X</t>
   </si>
   <si>
     <t>已解锁武器【{0}】</t>
   </si>
   <si>
+    <t>UNLOCKED WEAPONS [{0}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{1}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{2}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{3}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{4}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{5}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{6}]</t>
+  </si>
+  <si>
     <t>WEAPON_USING</t>
   </si>
   <si>
     <t>使用中</t>
   </si>
   <si>
+    <t>IN USE</t>
+  </si>
+  <si>
     <t>WEAPON_READY</t>
   </si>
   <si>
     <t>就绪</t>
   </si>
   <si>
+    <t>READY</t>
+  </si>
+  <si>
     <t>WEAPON_UNLOCK_ON_GAME_LEVEL_X</t>
   </si>
   <si>
     <t>关卡{0}解锁</t>
   </si>
   <si>
+    <t>LEVEL {0} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {1} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {2} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {3} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {4} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {5} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {6} UNLOCKED</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_BTN_SIGN</t>
   </si>
   <si>
     <t>签到</t>
   </si>
   <si>
+    <t>SIGN IN</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_BTN_REWRADS</t>
   </si>
   <si>
     <t>双倍奖励</t>
   </si>
   <si>
+    <t>DOUBLE REWARD</t>
+  </si>
+  <si>
     <t>COIN_SHOP</t>
   </si>
   <si>
     <t>金币商店</t>
   </si>
   <si>
+    <t>GOLD COIN STORE</t>
+  </si>
+  <si>
     <t>COIN_EXCHANGE</t>
   </si>
   <si>
     <t>金币兑换</t>
   </si>
   <si>
+    <t>GOLD COIN EXCHANGE</t>
+  </si>
+  <si>
     <t>EXCHANGE</t>
   </si>
   <si>
@@ -516,18 +654,45 @@
     <t>未收录</t>
   </si>
   <si>
+    <t>NOT DISCOVERED</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_CAN_RECEIVE</t>
   </si>
   <si>
     <t>可领取</t>
   </si>
   <si>
+    <t>CLAIM</t>
+  </si>
+  <si>
     <t>DAILY_SIGN_RECEIVED</t>
   </si>
   <si>
     <t>已领取</t>
   </si>
   <si>
+    <t>CLAIMED</t>
+  </si>
+  <si>
+    <t>VIRUS_FEATURES</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+  <si>
+    <t>VIRUS_TIPS</t>
+  </si>
+  <si>
+    <t>小贴士</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
     <t>VIRUS_TRIANGLE_NAME</t>
   </si>
   <si>
@@ -546,10 +711,550 @@
     <t>普通病毒小提示</t>
   </si>
   <si>
+    <t>小提示</t>
+  </si>
+  <si>
+    <t>Virus_Dodge_Name</t>
+  </si>
+  <si>
+    <t>躲避病毒</t>
+  </si>
+  <si>
+    <t>小行星人</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>Virus_Speed_Name</t>
+  </si>
+  <si>
+    <t>变速病毒</t>
+  </si>
+  <si>
+    <t>顽皮星人</t>
+  </si>
+  <si>
+    <t>Naughty Star</t>
+  </si>
+  <si>
+    <t>Virus_Cure_Name</t>
+  </si>
+  <si>
+    <t>治愈病毒</t>
+  </si>
+  <si>
+    <t>治愈星人</t>
+  </si>
+  <si>
+    <t>Angry Nurse</t>
+  </si>
+  <si>
+    <t>Virus_Track_Name</t>
+  </si>
+  <si>
+    <t>追踪病毒</t>
+  </si>
+  <si>
+    <t>卫星人</t>
+  </si>
+  <si>
+    <t>Find my-Apple</t>
+  </si>
+  <si>
+    <t>Virus_Bomb_Name</t>
+  </si>
+  <si>
+    <t>爆炸病毒</t>
+  </si>
+  <si>
+    <t>爆炸星人</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>Virus_Swallow_Name</t>
+  </si>
+  <si>
+    <t>吞噬病毒</t>
+  </si>
+  <si>
+    <t>吞食星人</t>
+  </si>
+  <si>
+    <t>Star Devouror</t>
+  </si>
+  <si>
+    <t>Virus_Attach_Name</t>
+  </si>
+  <si>
+    <t>吸附病毒</t>
+  </si>
+  <si>
+    <t>引力星人</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Virus_Slower_Name</t>
+  </si>
+  <si>
+    <t>减速病毒</t>
+  </si>
+  <si>
+    <t>白矮星人</t>
+  </si>
+  <si>
+    <t>White Dwarfs</t>
+  </si>
+  <si>
+    <t>Virus_Expand_Name</t>
+  </si>
+  <si>
+    <t>膨胀病毒</t>
+  </si>
+  <si>
+    <t>膨胀星人</t>
+  </si>
+  <si>
+    <t>Sweller</t>
+  </si>
+  <si>
+    <t>Virus_Dart_Name</t>
+  </si>
+  <si>
+    <t>飞镖病毒</t>
+  </si>
+  <si>
+    <t>射手星人</t>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>Virus_Recover_Name</t>
+  </si>
+  <si>
+    <t>再生病毒</t>
+  </si>
+  <si>
+    <t>自愈星人</t>
+  </si>
+  <si>
+    <t>Self-Healing Stars</t>
+  </si>
+  <si>
+    <t>Virus_Defense_Name</t>
+  </si>
+  <si>
+    <t>防御病毒</t>
+  </si>
+  <si>
+    <t>自闭星人</t>
+  </si>
+  <si>
+    <t>Reticent</t>
+  </si>
+  <si>
+    <t>Virus_Vampire_Name</t>
+  </si>
+  <si>
+    <t>吸血病毒</t>
+  </si>
+  <si>
+    <t>德古拉星人</t>
+  </si>
+  <si>
+    <t>Dracula</t>
+  </si>
+  <si>
+    <t>Virus_Collider_Name</t>
+  </si>
+  <si>
+    <t>碰撞病毒</t>
+  </si>
+  <si>
+    <t>火星人</t>
+  </si>
+  <si>
+    <t>Martians</t>
+  </si>
+  <si>
+    <t>Virus_Dodge_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>会躲避机器人的攻击</t>
+  </si>
+  <si>
+    <t>It always dodges</t>
+  </si>
+  <si>
+    <t>Virus_Speed_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>移动速度会突然加快</t>
+  </si>
+  <si>
+    <t>Very Naughty~</t>
+  </si>
+  <si>
+    <t>Virus_Cure_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>回复其他星人的HP</t>
+  </si>
+  <si>
+    <t>It heals</t>
+  </si>
+  <si>
+    <t>Virus_Track_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>靠近时会追踪玩家</t>
+  </si>
+  <si>
+    <t>Not every phone is an iphone, your jerk!</t>
+  </si>
+  <si>
+    <t>Virus_Bomb_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>被打爆时会发生爆炸</t>
+  </si>
+  <si>
+    <t>It sings 
+We gon' go all night
+We gon' light it up
+Like I'm dynamite</t>
+  </si>
+  <si>
+    <t>Virus_Swallow_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>吞食其他星人</t>
+  </si>
+  <si>
+    <t>It sallows!</t>
+  </si>
+  <si>
+    <t>Virus_Attach_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>吸住周围的外星人</t>
+  </si>
+  <si>
+    <t>They think they are so attractive, just like "Sandra Bullock"</t>
+  </si>
+  <si>
+    <t>Virus_Slower_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>机器人靠近它会被减速</t>
+  </si>
+  <si>
+    <t>It will slow your down, because they are so heavy.</t>
+  </si>
+  <si>
+    <t>Virus_Expand_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>体积会突然变大</t>
+  </si>
+  <si>
+    <t>Characteristic volume will suddenly increase</t>
+  </si>
+  <si>
+    <t>Virus_Dart_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>发射3个小外星人</t>
+  </si>
+  <si>
+    <t>It shoots ouuut something~</t>
+  </si>
+  <si>
+    <t>Virus_Recover_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>受伤时会自己恢复</t>
+  </si>
+  <si>
+    <t>It will recover when they are injured</t>
+  </si>
+  <si>
+    <t>Virus_Defense_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>每隔一段时间会变成无敌状态</t>
+  </si>
+  <si>
+    <t>When it get sad, it shut itself off.</t>
+  </si>
+  <si>
+    <t>Virus_Vampire_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>吸取其他星人的HP</t>
+  </si>
+  <si>
+    <t>They suck.</t>
+  </si>
+  <si>
+    <t>Virus_Collider_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>会碰撞并弹开其他星人</t>
+  </si>
+  <si>
+    <t>It says "F*ck off" on their face.</t>
+  </si>
+  <si>
+    <t>Virus_Dodge_TIPS</t>
+  </si>
+  <si>
+    <t>再聪明的小行星人也逃不过灵活的机器人</t>
+  </si>
+  <si>
+    <t>Remember to dodge advance</t>
+  </si>
+  <si>
+    <t>Virus_Speed_TIPS</t>
+  </si>
+  <si>
+    <t>遇到顽皮星人记得要提前闪避</t>
+  </si>
+  <si>
+    <t>Virus_Cure_TIPS</t>
+  </si>
+  <si>
+    <t>遇到治愈星人建议优先集火治愈星人</t>
+  </si>
+  <si>
+    <t>You have to proity them!</t>
+  </si>
+  <si>
+    <t>Virus_Track_TIPS</t>
+  </si>
+  <si>
+    <t>惹起卫星人的注意了就快逃吧</t>
+  </si>
+  <si>
+    <t>It tracks you down, move away!</t>
+  </si>
+  <si>
+    <t>Virus_Bomb_TIPS</t>
+  </si>
+  <si>
+    <t>爆炸星人遇到生命危险时会产生爆炸</t>
+  </si>
+  <si>
+    <t>It explodes, be aware.</t>
+  </si>
+  <si>
+    <t>Virus_Swallow_TIPS</t>
+  </si>
+  <si>
+    <t>吞食星人可以吞食掉体型比自己小的其他星人</t>
+  </si>
+  <si>
+    <t>You have help them to manage their weight.</t>
+  </si>
+  <si>
+    <t>Virus_Attach_TIPS</t>
+  </si>
+  <si>
+    <t>引力星人的引力可吸住周围的外星人形成一大群外星人</t>
+  </si>
+  <si>
+    <t>It is the glues that holds everybody together.</t>
+  </si>
+  <si>
+    <t>Virus_Slower_TIPS</t>
+  </si>
+  <si>
+    <t>白矮星人带有减速磁场，不要靠近它们</t>
+  </si>
+  <si>
+    <t>What can I say, just stay away from them.</t>
+  </si>
+  <si>
+    <t>Virus_Expand_TIPS</t>
+  </si>
+  <si>
+    <t>膨胀星人到底有多大一直都是个谜题</t>
+  </si>
+  <si>
+    <t>How big is Expansions has always been a mystery</t>
+  </si>
+  <si>
+    <t>Virus_Dart_TIPS</t>
+  </si>
+  <si>
+    <t>射手星人会把小外星人当做武器发射出去</t>
+  </si>
+  <si>
+    <t>Don't get shoot,huh~</t>
+  </si>
+  <si>
+    <t>Virus_Recover_TIPS</t>
+  </si>
+  <si>
+    <t>自愈星人强大的恢复力让他不易死亡</t>
+  </si>
+  <si>
+    <t>Die!Die! Mother f*ck Die! Why don't you just die!?</t>
+  </si>
+  <si>
+    <t>Virus_Defense_TIPS</t>
+  </si>
+  <si>
+    <t>自闭星人怪异的性格丝毫不影响他们强大的防御力</t>
+  </si>
+  <si>
+    <t>Get them when they are not sad.</t>
+  </si>
+  <si>
+    <t>Virus_Vampire_TIPS</t>
+  </si>
+  <si>
+    <t>没有什么是强盗星人得不到的</t>
+  </si>
+  <si>
+    <t>Yeah, they really do suck.</t>
+  </si>
+  <si>
+    <t>Virus_Collider_TIPS</t>
+  </si>
+  <si>
+    <t>火星人脾气可不太好，离他们远点</t>
+  </si>
+  <si>
+    <t>Lonly Martians don't get alone well with others. Stay away from them.</t>
+  </si>
+  <si>
     <t>WEAPON_NORMAL_NAME</t>
   </si>
   <si>
     <t>基础武器</t>
+  </si>
+  <si>
+    <t>BASIC WEAPON</t>
+  </si>
+  <si>
+    <t>Weapon_Missile_Name</t>
+  </si>
+  <si>
+    <t>追踪导弹</t>
+  </si>
+  <si>
+    <t>TRACKING MISSILE</t>
+  </si>
+  <si>
+    <t>Weapon_Cover_Name</t>
+  </si>
+  <si>
+    <t>防护罩</t>
+  </si>
+  <si>
+    <t>FORCE FIELD</t>
+  </si>
+  <si>
+    <t>Weapon_Laser_Name</t>
+  </si>
+  <si>
+    <t>激光器</t>
+  </si>
+  <si>
+    <t>LASER</t>
+  </si>
+  <si>
+    <t>Weapon_Railgun_Name</t>
+  </si>
+  <si>
+    <t>电磁炮</t>
+  </si>
+  <si>
+    <t>ELECTROMAGNETIC GUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DAYS_01</t>
+  </si>
+  <si>
+    <t>第1天</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAYS_02</t>
+  </si>
+  <si>
+    <t>第2天</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>DAYS_03</t>
+  </si>
+  <si>
+    <t>第3天</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAYS_04</t>
+  </si>
+  <si>
+    <t>第4天</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAYS_05</t>
+  </si>
+  <si>
+    <t>第5天</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAYS_06</t>
+  </si>
+  <si>
+    <t>第6天</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAYS_07</t>
+  </si>
+  <si>
+    <t>第7天</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>关闭</t>
   </si>
 </sst>
 </file>
@@ -557,12 +1262,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,7 +1283,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,38 +1335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,19 +1350,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,7 +1375,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +1405,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -691,31 +1428,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,25 +1489,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,49 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +1561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +1585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,31 +1621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +1639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,8 +1656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,20 +1677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,17 +1718,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,152 +1753,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,57 +1910,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1527,25 +2271,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1538461538462" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.2980769230769" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5865384615385" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.075" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -1555,6 +2299,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +2389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2541,1187 +3286,3022 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>105</v>
+      <c r="D32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>107</v>
+      <c r="B33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>109</v>
+      <c r="A34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>111</v>
+      <c r="A35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>113</v>
+      <c r="A36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>115</v>
+      <c r="A37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>117</v>
+      <c r="A38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>119</v>
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>121</v>
+      <c r="A40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>123</v>
+      <c r="A41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>125</v>
+      <c r="A42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>127</v>
+      <c r="A43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>129</v>
+      <c r="A44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>131</v>
+      <c r="A45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>133</v>
+      <c r="A46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>135</v>
+      <c r="A47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>137</v>
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>139</v>
+      <c r="A49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>141</v>
+      <c r="A50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>143</v>
+      <c r="A51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>145</v>
+      <c r="A52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>147</v>
+      <c r="A53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>149</v>
+      <c r="A54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>151</v>
+      <c r="A55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>153</v>
+      <c r="A56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>155</v>
+      <c r="A57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>157</v>
+      <c r="A58" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>159</v>
+      <c r="A59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>161</v>
+      <c r="A60" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>163</v>
+      <c r="A61" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>165</v>
+      <c r="A62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>167</v>
+      <c r="A63" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>171</v>
+      <c r="A64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:10">
+      <c r="A89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +6312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3740,7 +6320,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3748,7 +6328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3756,7 +6336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="414">
   <si>
     <t>id</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>TIPS</t>
+  </si>
+  <si>
+    <t>ENERGY_TIPS_X</t>
+  </si>
+  <si>
+    <t>{0}秒后恢复1点体力值。</t>
   </si>
   <si>
     <t>VIRUS_TRIANGLE_NAME</t>
@@ -1262,12 +1268,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,31 +1300,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1335,10 +1320,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,32 +1344,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,15 +1366,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1413,8 +1396,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,14 +1428,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,7 +1459,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,19 +1537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,25 +1561,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,43 +1597,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,67 +1639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,30 +1650,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1694,11 +1670,57 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,33 +1742,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,10 +1756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,19 +1768,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,116 +1789,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1916,15 +1916,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2273,10 +2271,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2299,7 +2297,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4348,28 +4345,28 @@
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4405,35 +4402,35 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4445,28 +4442,28 @@
         <v>228</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4477,988 +4474,988 @@
         <v>230</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:10">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="E89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:10">
+      <c r="A90" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>305</v>
+      <c r="E90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>308</v>
+      <c r="E91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5466,810 +5463,810 @@
         <v>335</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="D113" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>373</v>
+      <c r="F113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="E115" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="F115" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="C116" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="E116" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="F116" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="C117" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="E117" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="F117" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="C118" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="E118" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="F118" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="119" spans="4:10">
-      <c r="D119" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="11" t="s">
+      <c r="C119" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="E119" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="11" t="s">
+      <c r="B121" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="F121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="11" t="s">
+      <c r="B122" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="F122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="11" t="s">
+      <c r="B123" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="F123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="11" t="s">
+      <c r="B124" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="F124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="11" t="s">
+      <c r="B125" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="11" t="s">
+      <c r="B126" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="F126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>408</v>
+      <c r="F127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -6302,6 +6299,38 @@
       </c>
       <c r="J129" s="1" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowHeight="11730"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="425">
   <si>
     <t>id</t>
   </si>
@@ -696,7 +696,7 @@
     <t>ENERGY_TIPS_X</t>
   </si>
   <si>
-    <t>{0}秒后恢复1点体力值。</t>
+    <t>{0}</t>
   </si>
   <si>
     <t>VIRUS_TRIANGLE_NAME</t>
@@ -705,10 +705,16 @@
     <t>普通病毒</t>
   </si>
   <si>
+    <t>Alien</t>
+  </si>
+  <si>
     <t>VIRUS_TRIANGLE_DESCRIPTION</t>
   </si>
   <si>
     <t>普通病毒描述</t>
+  </si>
+  <si>
+    <t>DES</t>
   </si>
   <si>
     <t>VIRUS_TRIANGLE_TIPS</t>
@@ -1146,7 +1152,10 @@
     <t>基础武器</t>
   </si>
   <si>
-    <t>BASIC WEAPON</t>
+    <t>聚能炮</t>
+  </si>
+  <si>
+    <t>ENERGY GATHERING CANNON</t>
   </si>
   <si>
     <t>Weapon_Missile_Name</t>
@@ -1261,6 +1270,30 @@
   </si>
   <si>
     <t>关闭</t>
+  </si>
+  <si>
+    <t>Weapon_power_tips</t>
+  </si>
+  <si>
+    <t>升级副武器火力</t>
+  </si>
+  <si>
+    <t>提升子弹伤害</t>
+  </si>
+  <si>
+    <t>Increases bullet damage</t>
+  </si>
+  <si>
+    <t>Weapon_speed_tips</t>
+  </si>
+  <si>
+    <t>升级副武器强度</t>
+  </si>
+  <si>
+    <t>提升武器强度</t>
+  </si>
+  <si>
+    <t>Upgrades may improve recharge speed, explosion radius, &amp; other special effect etc.</t>
   </si>
 </sst>
 </file>
@@ -1268,9 +1301,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1314,6 +1347,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1321,6 +1361,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1344,25 +1420,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1373,14 +1435,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1404,13 +1467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1420,33 +1476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1459,25 +1492,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,91 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,19 +1564,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,31 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,6 +1683,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1670,42 +1745,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,28 +1769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,10 +1789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,133 +1801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2271,10 +2304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:J67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4445,1598 +4478,1598 @@
         <v>228</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="4:10">
       <c r="D120" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E120"/>
       <c r="F120"/>
@@ -6047,290 +6080,354 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="32070" windowHeight="11730"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450">
   <si>
     <t>id</t>
   </si>
@@ -1377,9 +1377,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1415,14 +1415,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,8 +1435,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,31 +1468,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,6 +1492,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1498,18 +1514,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,39 +1536,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,7 +1567,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1669,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,121 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,37 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,26 +1766,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,6 +1794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1825,6 +1814,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,166 +1858,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2034,54 +2034,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2377,25 +2377,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:XFD144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.075" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1538461538462" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5865384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.2980769230769" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -2462,7 +2462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="16" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="16" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:16384">
+    <row r="77" ht="16.8" spans="1:16384">
       <c r="A77" s="1" t="s">
         <v>249</v>
       </c>
@@ -4855,11 +4855,9 @@
       <c r="H77" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K77" s="1"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
@@ -21906,7 +21904,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:10">
+    <row r="101" ht="16.5" customHeight="1" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>329</v>
       </c>
@@ -21938,7 +21936,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="16" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>332</v>
       </c>
@@ -22834,7 +22832,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" ht="16.8" spans="4:10">
       <c r="D131" s="9" t="s">
         <v>416</v>
       </c>
@@ -23205,7 +23203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23213,7 +23211,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -23221,7 +23219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23229,7 +23227,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="476">
   <si>
     <t>id</t>
   </si>
@@ -324,424 +324,427 @@
     <t>GAME_END_BONUS</t>
   </si>
   <si>
+    <t>三倍奖励</t>
+  </si>
+  <si>
+    <t>TRIPLE REWARD</t>
+  </si>
+  <si>
+    <t>ALREADY_LEVEL_MAX</t>
+  </si>
+  <si>
+    <t>已经升至满级</t>
+  </si>
+  <si>
+    <t>FULLY UPGRADED</t>
+  </si>
+  <si>
+    <t>UPGRADE_LACK_OF_COIN</t>
+  </si>
+  <si>
+    <t>升级所需金币不足</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT COIN</t>
+  </si>
+  <si>
+    <t>UPGRADE_LACK_OF_DIAMOND</t>
+  </si>
+  <si>
+    <t>升级所需钻石不足</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT DIAMOND</t>
+  </si>
+  <si>
+    <t>CANNOT_EXCEED_FIRE_SPEED_LEVEL</t>
+  </si>
+  <si>
+    <t>不能超过主武器射速等级</t>
+  </si>
+  <si>
+    <t>CANNOT EXCEED THE RATE OF FIRE OF THE MAIN WEAPON</t>
+  </si>
+  <si>
+    <t>CANNOT_EXCEED_FIRE_POWER_LEVEL</t>
+  </si>
+  <si>
+    <t>不能超过主武器火力等级</t>
+  </si>
+  <si>
+    <t>CANNOT EXCEED THE FIRE LEVEL OF THE MAIN WEAPON</t>
+  </si>
+  <si>
+    <t>NOT_REACH_WEAPON_UNLOCK_GAME_LEVEL</t>
+  </si>
+  <si>
+    <t>未达到武器解锁关卡</t>
+  </si>
+  <si>
+    <t>LOCKED</t>
+  </si>
+  <si>
+    <t>EXCHANGE_DIAMOND_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>钻石不足兑换</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT DIAMONDS</t>
+  </si>
+  <si>
+    <t>GAME_LEVEL_LOCKED</t>
+  </si>
+  <si>
+    <t>关卡尚未解锁</t>
+  </si>
+  <si>
+    <t>GAME_LEVEL_INVALID</t>
+  </si>
+  <si>
+    <t>无效关卡</t>
+  </si>
+  <si>
+    <t>INVALID LEVEL</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_ALREADY_SIGNED</t>
+  </si>
+  <si>
+    <t>今日已签到</t>
+  </si>
+  <si>
+    <t>SIGNED IN</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_CANT_SIGN</t>
+  </si>
+  <si>
+    <t>不能签到</t>
+  </si>
+  <si>
+    <t>CANNOT SIGN IN</t>
+  </si>
+  <si>
+    <t>VIRUS_LOCKED</t>
+  </si>
+  <si>
+    <t>怪物尚未解锁</t>
+  </si>
+  <si>
+    <t>ALIEN HAS NOT DISCOVERED</t>
+  </si>
+  <si>
+    <t>VIRUS_COLLECT_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>怪物数量不足收集</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT ALIIENS COLLECTION</t>
+  </si>
+  <si>
+    <t>BOOK_COLLECT_COUNT</t>
+  </si>
+  <si>
+    <t>收集进度</t>
+  </si>
+  <si>
+    <t>COLLECTION PROGRESS</t>
+  </si>
+  <si>
+    <t>COIN_VALUE</t>
+  </si>
+  <si>
+    <t>金币价值</t>
+  </si>
+  <si>
+    <t>GOLD VALUE</t>
+  </si>
+  <si>
+    <t>COIN_INCOME</t>
+  </si>
+  <si>
+    <t>金币收益</t>
+  </si>
+  <si>
+    <t>GOLD INCOME</t>
+  </si>
+  <si>
+    <t>AD_PLAY_FAILED</t>
+  </si>
+  <si>
+    <t>广告播放失败</t>
+  </si>
+  <si>
+    <t>VIDEO PLAY FAILURE</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN</t>
+  </si>
+  <si>
+    <t>每日签到</t>
+  </si>
+  <si>
+    <t>DAILY SIGN IN</t>
+  </si>
+  <si>
+    <t>VIRUS_BOOK</t>
+  </si>
+  <si>
+    <t>怪物图鉴</t>
+  </si>
+  <si>
+    <t>BOOK OF ALIENS</t>
+  </si>
+  <si>
+    <t>WEAPON_SYSTEM</t>
+  </si>
+  <si>
+    <t>武器系统</t>
+  </si>
+  <si>
+    <t>WEAPON SYSTEM</t>
+  </si>
+  <si>
+    <t>UNLOCK_SYSTEM_X</t>
+  </si>
+  <si>
+    <t>已解锁【{0}】</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{0}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{1}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{2}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{3}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{4}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{5}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED [{6}]</t>
+  </si>
+  <si>
+    <t>UNLOCK_WEAPON_X</t>
+  </si>
+  <si>
+    <t>已解锁武器【{0}】</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{0}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{1}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{2}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{3}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{4}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{5}]</t>
+  </si>
+  <si>
+    <t>UNLOCKED WEAPONS [{6}]</t>
+  </si>
+  <si>
+    <t>WEAPON_USING</t>
+  </si>
+  <si>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>IN USE</t>
+  </si>
+  <si>
+    <t>WEAPON_READY</t>
+  </si>
+  <si>
+    <t>就绪</t>
+  </si>
+  <si>
+    <t>READY</t>
+  </si>
+  <si>
+    <t>WEAPON_UNLOCK_ON_GAME_LEVEL_X</t>
+  </si>
+  <si>
+    <t>关卡{0}解锁</t>
+  </si>
+  <si>
+    <t>LEVEL {0} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {1} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {2} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {3} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {4} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {5} UNLOCKED</t>
+  </si>
+  <si>
+    <t>LEVEL {6} UNLOCKED</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_BTN_SIGN</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>SIGN IN</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_BTN_REWRADS</t>
+  </si>
+  <si>
+    <t>双倍奖励</t>
+  </si>
+  <si>
+    <t>DOUBLE REWARD</t>
+  </si>
+  <si>
+    <t>COIN_SHOP</t>
+  </si>
+  <si>
+    <t>金币商店</t>
+  </si>
+  <si>
+    <t>GOLD COIN STORE</t>
+  </si>
+  <si>
+    <t>COIN_EXCHANGE</t>
+  </si>
+  <si>
+    <t>金币兑换</t>
+  </si>
+  <si>
+    <t>GOLD COIN EXCHANGE</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>VIRUS_UNKNOWN</t>
+  </si>
+  <si>
+    <t>未收录</t>
+  </si>
+  <si>
+    <t>NOT DISCOVERED</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_CAN_RECEIVE</t>
+  </si>
+  <si>
+    <t>可领取</t>
+  </si>
+  <si>
+    <t>CLAIM</t>
+  </si>
+  <si>
+    <t>DAILY_SIGN_RECEIVED</t>
+  </si>
+  <si>
+    <t>已领取</t>
+  </si>
+  <si>
+    <t>CLAIMED</t>
+  </si>
+  <si>
+    <t>VIRUS_FEATURES</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+  <si>
+    <t>VIRUS_TIPS</t>
+  </si>
+  <si>
+    <t>小贴士</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>ENERGY_TIPS_X</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>ENERGY_EXCHANGE</t>
+  </si>
+  <si>
+    <t>能量兑换</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>ENERGY_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>能量不足</t>
+  </si>
+  <si>
+    <t>ENERGY NOT ENOUGH</t>
+  </si>
+  <si>
+    <t>ENERGY_EXCHANGE_ENERGY_WILL_BE_OVERFLOW</t>
+  </si>
+  <si>
+    <t>能量将超出上限</t>
+  </si>
+  <si>
+    <t>ENERGY WILL BE OVERFLOW</t>
+  </si>
+  <si>
+    <t>COLLECT_FINISH</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>COIN_INCOME_COLLECT</t>
+  </si>
+  <si>
+    <t>COIN INCOME</t>
+  </si>
+  <si>
+    <t>GAME_END_MYSTICAL_BONUS</t>
+  </si>
+  <si>
     <t>神秘大奖</t>
-  </si>
-  <si>
-    <t>BONUS</t>
-  </si>
-  <si>
-    <t>ALREADY_LEVEL_MAX</t>
-  </si>
-  <si>
-    <t>已经升至满级</t>
-  </si>
-  <si>
-    <t>FULLY UPGRADED</t>
-  </si>
-  <si>
-    <t>UPGRADE_LACK_OF_COIN</t>
-  </si>
-  <si>
-    <t>升级所需金币不足</t>
-  </si>
-  <si>
-    <t>INSUFFICIENT COIN</t>
-  </si>
-  <si>
-    <t>UPGRADE_LACK_OF_DIAMOND</t>
-  </si>
-  <si>
-    <t>升级所需钻石不足</t>
-  </si>
-  <si>
-    <t>INSUFFICIENT DIAMOND</t>
-  </si>
-  <si>
-    <t>CANNOT_EXCEED_FIRE_SPEED_LEVEL</t>
-  </si>
-  <si>
-    <t>不能超过主武器射速等级</t>
-  </si>
-  <si>
-    <t>CANNOT EXCEED THE RATE OF FIRE OF THE MAIN WEAPON</t>
-  </si>
-  <si>
-    <t>CANNOT_EXCEED_FIRE_POWER_LEVEL</t>
-  </si>
-  <si>
-    <t>不能超过主武器火力等级</t>
-  </si>
-  <si>
-    <t>CANNOT EXCEED THE FIRE LEVEL OF THE MAIN WEAPON</t>
-  </si>
-  <si>
-    <t>NOT_REACH_WEAPON_UNLOCK_GAME_LEVEL</t>
-  </si>
-  <si>
-    <t>未达到武器解锁关卡</t>
-  </si>
-  <si>
-    <t>LOCKED</t>
-  </si>
-  <si>
-    <t>EXCHANGE_DIAMOND_NOT_ENOUGH</t>
-  </si>
-  <si>
-    <t>钻石不足兑换</t>
-  </si>
-  <si>
-    <t>INSUFFICIENT DIAMONDS</t>
-  </si>
-  <si>
-    <t>GAME_LEVEL_LOCKED</t>
-  </si>
-  <si>
-    <t>关卡尚未解锁</t>
-  </si>
-  <si>
-    <t>GAME_LEVEL_INVALID</t>
-  </si>
-  <si>
-    <t>无效关卡</t>
-  </si>
-  <si>
-    <t>INVALID LEVEL</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_ALREADY_SIGNED</t>
-  </si>
-  <si>
-    <t>今日已签到</t>
-  </si>
-  <si>
-    <t>SIGNED IN</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_CANT_SIGN</t>
-  </si>
-  <si>
-    <t>不能签到</t>
-  </si>
-  <si>
-    <t>CANNOT SIGN IN</t>
-  </si>
-  <si>
-    <t>VIRUS_LOCKED</t>
-  </si>
-  <si>
-    <t>怪物尚未解锁</t>
-  </si>
-  <si>
-    <t>ALIEN HAS NOT DISCOVERED</t>
-  </si>
-  <si>
-    <t>VIRUS_COLLECT_NOT_ENOUGH</t>
-  </si>
-  <si>
-    <t>怪物数量不足收集</t>
-  </si>
-  <si>
-    <t>INSUFFICIENT ALIIENS COLLECTION</t>
-  </si>
-  <si>
-    <t>BOOK_COLLECT_COUNT</t>
-  </si>
-  <si>
-    <t>收集进度</t>
-  </si>
-  <si>
-    <t>COLLECTION PROGRESS</t>
-  </si>
-  <si>
-    <t>COIN_VALUE</t>
-  </si>
-  <si>
-    <t>金币价值</t>
-  </si>
-  <si>
-    <t>GOLD VALUE</t>
-  </si>
-  <si>
-    <t>COIN_INCOME</t>
-  </si>
-  <si>
-    <t>金币收益</t>
-  </si>
-  <si>
-    <t>GOLD INCOME</t>
-  </si>
-  <si>
-    <t>AD_PLAY_FAILED</t>
-  </si>
-  <si>
-    <t>广告播放失败</t>
-  </si>
-  <si>
-    <t>VIDEO PLAY FAILURE</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN</t>
-  </si>
-  <si>
-    <t>每日签到</t>
-  </si>
-  <si>
-    <t>DAILY SIGN IN</t>
-  </si>
-  <si>
-    <t>VIRUS_BOOK</t>
-  </si>
-  <si>
-    <t>怪物图鉴</t>
-  </si>
-  <si>
-    <t>BOOK OF ALIENS</t>
-  </si>
-  <si>
-    <t>WEAPON_SYSTEM</t>
-  </si>
-  <si>
-    <t>武器系统</t>
-  </si>
-  <si>
-    <t>WEAPON SYSTEM</t>
-  </si>
-  <si>
-    <t>UNLOCK_SYSTEM_X</t>
-  </si>
-  <si>
-    <t>已解锁【{0}】</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{0}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{1}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{2}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{3}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{4}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{5}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED [{6}]</t>
-  </si>
-  <si>
-    <t>UNLOCK_WEAPON_X</t>
-  </si>
-  <si>
-    <t>已解锁武器【{0}】</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{0}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{1}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{2}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{3}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{4}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{5}]</t>
-  </si>
-  <si>
-    <t>UNLOCKED WEAPONS [{6}]</t>
-  </si>
-  <si>
-    <t>WEAPON_USING</t>
-  </si>
-  <si>
-    <t>使用中</t>
-  </si>
-  <si>
-    <t>IN USE</t>
-  </si>
-  <si>
-    <t>WEAPON_READY</t>
-  </si>
-  <si>
-    <t>就绪</t>
-  </si>
-  <si>
-    <t>READY</t>
-  </si>
-  <si>
-    <t>WEAPON_UNLOCK_ON_GAME_LEVEL_X</t>
-  </si>
-  <si>
-    <t>关卡{0}解锁</t>
-  </si>
-  <si>
-    <t>LEVEL {0} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {1} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {2} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {3} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {4} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {5} UNLOCKED</t>
-  </si>
-  <si>
-    <t>LEVEL {6} UNLOCKED</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_BTN_SIGN</t>
-  </si>
-  <si>
-    <t>签到</t>
-  </si>
-  <si>
-    <t>SIGN IN</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_BTN_REWRADS</t>
-  </si>
-  <si>
-    <t>双倍奖励</t>
-  </si>
-  <si>
-    <t>DOUBLE REWARD</t>
-  </si>
-  <si>
-    <t>COIN_SHOP</t>
-  </si>
-  <si>
-    <t>金币商店</t>
-  </si>
-  <si>
-    <t>GOLD COIN STORE</t>
-  </si>
-  <si>
-    <t>COIN_EXCHANGE</t>
-  </si>
-  <si>
-    <t>金币兑换</t>
-  </si>
-  <si>
-    <t>GOLD COIN EXCHANGE</t>
-  </si>
-  <si>
-    <t>EXCHANGE</t>
-  </si>
-  <si>
-    <t>兑换</t>
-  </si>
-  <si>
-    <t>VIRUS_UNKNOWN</t>
-  </si>
-  <si>
-    <t>未收录</t>
-  </si>
-  <si>
-    <t>NOT DISCOVERED</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_CAN_RECEIVE</t>
-  </si>
-  <si>
-    <t>可领取</t>
-  </si>
-  <si>
-    <t>CLAIM</t>
-  </si>
-  <si>
-    <t>DAILY_SIGN_RECEIVED</t>
-  </si>
-  <si>
-    <t>已领取</t>
-  </si>
-  <si>
-    <t>CLAIMED</t>
-  </si>
-  <si>
-    <t>VIRUS_FEATURES</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>FEATURES</t>
-  </si>
-  <si>
-    <t>VIRUS_TIPS</t>
-  </si>
-  <si>
-    <t>小贴士</t>
-  </si>
-  <si>
-    <t>TIPS</t>
-  </si>
-  <si>
-    <t>ENERGY_TIPS_X</t>
-  </si>
-  <si>
-    <t>{0}</t>
-  </si>
-  <si>
-    <t>ENERGY_EXCHANGE</t>
-  </si>
-  <si>
-    <t>能量兑换</t>
-  </si>
-  <si>
-    <t>ENERGY</t>
-  </si>
-  <si>
-    <t>ENERGY_NOT_ENOUGH</t>
-  </si>
-  <si>
-    <t>能量不足</t>
-  </si>
-  <si>
-    <t>ENERGY NOT ENOUGH</t>
-  </si>
-  <si>
-    <t>ENERGY_EXCHANGE_ENERGY_WILL_BE_OVERFLOW</t>
-  </si>
-  <si>
-    <t>能量将超出上限</t>
-  </si>
-  <si>
-    <t>ENERGY WILL BE OVERFLOW</t>
-  </si>
-  <si>
-    <t>COLLECT_FINISH</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>FINISH</t>
-  </si>
-  <si>
-    <t>COIN_INCOME_COLLECT</t>
-  </si>
-  <si>
-    <t>COIN INCOME</t>
-  </si>
-  <si>
-    <t>GAME_END_MYSTICAL_BONUS</t>
   </si>
   <si>
     <t>MYSTICAL BONUS</t>
@@ -1369,6 +1372,81 @@
   </si>
   <si>
     <t>Upgrades may improve recharge speed, explosion radius, &amp; other special effect etc.</t>
+  </si>
+  <si>
+    <t>Shop_01</t>
+  </si>
+  <si>
+    <t>商店1</t>
+  </si>
+  <si>
+    <t>Shop_02</t>
+  </si>
+  <si>
+    <t>商店2</t>
+  </si>
+  <si>
+    <t>Shop_03</t>
+  </si>
+  <si>
+    <t>商店3</t>
+  </si>
+  <si>
+    <t>Shop_04</t>
+  </si>
+  <si>
+    <t>商店4</t>
+  </si>
+  <si>
+    <t>Shop_05</t>
+  </si>
+  <si>
+    <t>商店5</t>
+  </si>
+  <si>
+    <t>Shop_price1</t>
+  </si>
+  <si>
+    <t>价格1</t>
+  </si>
+  <si>
+    <t>$0.99</t>
+  </si>
+  <si>
+    <t>Shop_price2</t>
+  </si>
+  <si>
+    <t>价格2</t>
+  </si>
+  <si>
+    <t>$4.99</t>
+  </si>
+  <si>
+    <t>Shop_price3</t>
+  </si>
+  <si>
+    <t>价格3</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>Shop_price4</t>
+  </si>
+  <si>
+    <t>价格4</t>
+  </si>
+  <si>
+    <t>$19.99</t>
+  </si>
+  <si>
+    <t>Shop_price5</t>
+  </si>
+  <si>
+    <t>价格5</t>
+  </si>
+  <si>
+    <t>$39.99</t>
   </si>
 </sst>
 </file>
@@ -1415,9 +1493,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,7 +1515,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,6 +1544,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1451,9 +1575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,7 +1593,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,24 +1606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,7 +1621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1522,37 +1629,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,31 +1645,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,6 +1729,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1621,13 +1753,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,25 +1795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,85 +1807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,11 +1839,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,30 +1893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1835,6 +1910,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1844,54 +1928,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1900,113 +2053,38 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2031,57 +2109,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2377,25 +2456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD144"/>
+  <dimension ref="A1:XFD155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1538461538462" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.2980769230769" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5865384615385" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.075" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -2462,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3365,7 +3444,7 @@
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4707,156 +4786,156 @@
         <v>241</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="77" ht="16.8" spans="1:16384">
+    <row r="77" spans="1:16384">
       <c r="A77" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -21234,77 +21313,77 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>224</v>
@@ -21330,1511 +21409,1511 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="101" ht="16.5" customHeight="1" spans="1:10">
+    <row r="101" customHeight="1" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="102" ht="16" spans="1:10">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="131" ht="16.8" spans="4:10">
+    <row r="131" spans="4:10">
       <c r="D131" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E131"/>
       <c r="F131"/>
@@ -22845,354 +22924,674 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="F141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" s="1">
+        <v>60</v>
+      </c>
+      <c r="D146" s="1">
+        <v>60</v>
+      </c>
+      <c r="E146" s="1">
+        <v>60</v>
+      </c>
+      <c r="F146" s="1">
+        <v>60</v>
+      </c>
+      <c r="G146" s="1">
+        <v>60</v>
+      </c>
+      <c r="H146" s="1">
+        <v>60</v>
+      </c>
+      <c r="I146" s="1">
+        <v>60</v>
+      </c>
+      <c r="J146" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C147" s="1">
+        <v>300</v>
+      </c>
+      <c r="D147" s="1">
+        <v>300</v>
+      </c>
+      <c r="E147" s="1">
+        <v>300</v>
+      </c>
+      <c r="F147" s="1">
+        <v>300</v>
+      </c>
+      <c r="G147" s="1">
+        <v>300</v>
+      </c>
+      <c r="H147" s="1">
+        <v>300</v>
+      </c>
+      <c r="I147" s="1">
+        <v>300</v>
+      </c>
+      <c r="J147" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C148" s="1">
+        <v>600</v>
+      </c>
+      <c r="D148" s="1">
+        <v>600</v>
+      </c>
+      <c r="E148" s="1">
+        <v>600</v>
+      </c>
+      <c r="F148" s="1">
+        <v>600</v>
+      </c>
+      <c r="G148" s="1">
+        <v>600</v>
+      </c>
+      <c r="H148" s="1">
+        <v>600</v>
+      </c>
+      <c r="I148" s="1">
+        <v>600</v>
+      </c>
+      <c r="J148" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="J150" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -23203,7 +23602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23211,7 +23610,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -23219,7 +23618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23227,7 +23626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504">
   <si>
     <t>id</t>
   </si>
@@ -1447,6 +1447,114 @@
   </si>
   <si>
     <t>$39.99</t>
+  </si>
+  <si>
+    <t>vipDisclaimer</t>
+  </si>
+  <si>
+    <t>vip 免责声明</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 24 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 25 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 26 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 27 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 28 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 29 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 30 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>Auto renewal subscription Disclaimer:
+After confirming the purchase, the fee will be deducted from the user account.
+-Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
+-Within 31 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+  </si>
+  <si>
+    <t>vipRewardFund</t>
+  </si>
+  <si>
+    <t>vip权益金币（多语言）</t>
+  </si>
+  <si>
+    <t>+300% Coin</t>
+  </si>
+  <si>
+    <t>vipRewardDiamond</t>
+  </si>
+  <si>
+    <t>vip权益钻石（多语言）</t>
+  </si>
+  <si>
+    <t>Daily Reward Diamond +5</t>
+  </si>
+  <si>
+    <t>vipRewardAd</t>
+  </si>
+  <si>
+    <t>vip权益广告（多语言）</t>
+  </si>
+  <si>
+    <t>Remove end level ads</t>
+  </si>
+  <si>
+    <t>vipRewardDifficulty</t>
+  </si>
+  <si>
+    <t>vip权益火力（多语言）</t>
+  </si>
+  <si>
+    <t>Game difficult +</t>
+  </si>
+  <si>
+    <t>vipRewardRevival</t>
+  </si>
+  <si>
+    <t>vip权益复活（多语言）</t>
+  </si>
+  <si>
+    <t>Revival by diamonds</t>
+  </si>
+  <si>
+    <t>vipExpiration</t>
+  </si>
+  <si>
+    <t>有效期至：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiration Date: </t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1563,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1499,30 +1607,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,16 +1623,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,21 +1653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1584,7 +1662,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1600,7 +1678,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,24 +1709,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1651,7 +1759,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,73 +1921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,91 +1933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,21 +1944,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1873,7 +1966,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,6 +1982,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,15 +2021,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1928,163 +2030,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2110,57 +2218,60 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2456,25 +2567,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD155"/>
+  <dimension ref="A1:XFD164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.075" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.0961538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.0769230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1538461538462" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5865384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.2980769230769" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -2541,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="16" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="16" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4909,7 +5020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:16384">
+    <row r="77" ht="16.8" spans="1:16384">
       <c r="A77" s="1" t="s">
         <v>250</v>
       </c>
@@ -21983,7 +22094,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:10">
+    <row r="101" ht="16.5" customHeight="1" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>330</v>
       </c>
@@ -22015,7 +22126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="16" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>333</v>
       </c>
@@ -22911,7 +23022,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" ht="16.8" spans="4:10">
       <c r="D131" s="9" t="s">
         <v>417</v>
       </c>
@@ -23594,6 +23705,236 @@
         <v>475</v>
       </c>
     </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:10">
+      <c r="A158" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:10">
+      <c r="A159" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:10">
+      <c r="A160" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:10">
+      <c r="A161" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:10">
+      <c r="A162" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6">
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23602,7 +23943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23610,7 +23951,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -23618,7 +23959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -23626,7 +23967,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27045" windowHeight="12150"/>
+    <workbookView windowWidth="28720" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557">
   <si>
     <t>id</t>
   </si>
@@ -1290,6 +1290,102 @@
     <t>Lonly Martians don't get alone well with others. Stay away from them.</t>
   </si>
   <si>
+    <t>buff_support</t>
+  </si>
+  <si>
+    <t>协同作战</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>buff_fire_power</t>
+  </si>
+  <si>
+    <t>火力强化</t>
+  </si>
+  <si>
+    <t>STRENGTHEN</t>
+  </si>
+  <si>
+    <t>buff_fire_speed</t>
+  </si>
+  <si>
+    <t>射速强化</t>
+  </si>
+  <si>
+    <t>RAGE</t>
+  </si>
+  <si>
+    <t>buff_coin</t>
+  </si>
+  <si>
+    <t>点石成金</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>buff_slowdown</t>
+  </si>
+  <si>
+    <t>弱化病毒</t>
+  </si>
+  <si>
+    <t>弱化怪物</t>
+  </si>
+  <si>
+    <t>SLOW DOWN</t>
+  </si>
+  <si>
+    <t>buff_knockback</t>
+  </si>
+  <si>
+    <t>击退效果</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>buff_weapon_up</t>
+  </si>
+  <si>
+    <t>副武器强化</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>buff_boost_virus</t>
+  </si>
+  <si>
+    <t>巨化病毒</t>
+  </si>
+  <si>
+    <t>巨化怪物</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>buff_move_limitation</t>
+  </si>
+  <si>
+    <t>限制移动</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>buff_live_up_virus</t>
+  </si>
+  <si>
+    <t>活化病毒</t>
+  </si>
+  <si>
+    <t>RABID</t>
+  </si>
+  <si>
     <t>WEAPON_NORMAL_NAME</t>
   </si>
   <si>
@@ -1299,7 +1395,7 @@
     <t>聚能炮</t>
   </si>
   <si>
-    <t>ENERGY GATHERING CANNON</t>
+    <t>CANNON</t>
   </si>
   <si>
     <t>Weapon_Missile_Name</t>
@@ -1308,7 +1404,7 @@
     <t>追踪导弹</t>
   </si>
   <si>
-    <t>TRACKING MISSILE</t>
+    <t>MISSILE</t>
   </si>
   <si>
     <t>Weapon_Cover_Name</t>
@@ -1317,7 +1413,7 @@
     <t>防护罩</t>
   </si>
   <si>
-    <t>FORCE FIELD</t>
+    <t>SHIELD</t>
   </si>
   <si>
     <t>Weapon_Laser_Name</t>
@@ -1335,7 +1431,7 @@
     <t>电磁炮</t>
   </si>
   <si>
-    <t>ELECTROMAGNETIC GUN</t>
+    <t>RAIL GUN</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1518,10 +1614,10 @@
     <t>vip 免责声明</t>
   </si>
   <si>
-    <t>Auto renewal subscription Disclaimer:
-After confirming the purchase, the fee will be deducted from the user account.
--Subscriptions are automatically renewed unless they are turned off at least 24 hours before the end of the current subscription period.
--Within 24 hours before the end of the current subscription period, the account will be deducted and the renewal fee will be noted.</t>
+    <t>自动续订订阅免责声明：
+确认购买后，费用将从用户帐户中扣除。
+-除非在当前订阅期结束之前至少24小时关闭订阅，否则将自动更新续订。
+-在当前订阅期结束前的25小时内，该帐户将扣除并注明续订费用。</t>
   </si>
   <si>
     <t>Auto renewal subscription Disclaimer:
@@ -1607,10 +1703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1646,14 +1742,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1667,38 +1810,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,33 +1835,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1753,37 +1872,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,7 +1894,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,7 +1960,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,13 +2014,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,145 +2074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,6 +2085,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2016,21 +2136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2048,15 +2153,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2066,174 +2162,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2272,54 +2368,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2615,18 +2711,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8076923076923" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -2657,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="16" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="16" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4383,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:4">
+    <row r="123" ht="16.5" customHeight="1" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>352</v>
       </c>
@@ -4301,7 +4397,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" ht="16" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>355</v>
       </c>
@@ -4623,471 +4719,614 @@
         <v>422</v>
       </c>
     </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="1"/>
+    </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D148" s="6" t="s">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D149" s="6" t="s">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="8" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="C150" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D150" s="6" t="s">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="D151" s="6" t="s">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="4:4">
-      <c r="D153" s="9" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="8" t="s">
         <v>439</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D158" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="8" t="s">
         <v>456</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D159" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="D159" s="6" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="B160" s="8" t="s">
         <v>460</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B163" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C168" s="1">
+      <c r="D174" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" s="1">
         <v>60</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D179" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C169" s="1">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C180" s="1">
         <v>300</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D180" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C170" s="1">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C181" s="1">
         <v>600</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D181" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C171" s="1">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C182" s="1">
         <v>1200</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D182" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C172" s="1">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C183" s="1">
         <v>2400</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D183" s="1">
         <v>2400</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="179" ht="333" customHeight="1" spans="1:4">
-      <c r="A179" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" spans="1:4">
-      <c r="A180" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" spans="1:4">
-      <c r="A181" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="182" s="1" customFormat="1" spans="1:4">
-      <c r="A182" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="183" s="1" customFormat="1" spans="1:4">
-      <c r="A183" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B183" s="1" t="s">
+    <row r="184" spans="1:4">
+      <c r="A184" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="B184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="C184" s="10" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="184" s="1" customFormat="1" spans="1:4">
-      <c r="A184" s="1" t="s">
+      <c r="D184" s="10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C185" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="D185" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="10" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C186" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="D186" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="B187" s="1" t="s">
         <v>524</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" ht="333" customHeight="1" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5098,7 +5337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5106,7 +5345,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5114,7 +5353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5122,7 +5361,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559">
   <si>
     <t>id</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>取消</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>版本</t>
   </si>
   <si>
     <t>UPDATE_RESOURCE</t>
@@ -1703,9 +1709,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1748,6 +1754,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1757,7 +1794,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,71 +1823,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1855,11 +1845,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1877,13 +1890,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1894,7 +1900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,163 +1942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,6 +1961,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,17 +2103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2136,6 +2136,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2151,22 +2162,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2188,145 +2194,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2713,10 +2719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2914,370 +2920,370 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3302,122 +3308,122 @@
         <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>136</v>
       </c>
@@ -3428,63 +3434,63 @@
         <v>137</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3498,301 +3504,301 @@
         <v>151</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3806,74 +3812,74 @@
         <v>216</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="6" t="s">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>231</v>
@@ -3890,60 +3896,60 @@
         <v>233</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>245</v>
@@ -3954,38 +3960,38 @@
         <v>246</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>250</v>
@@ -4002,553 +4008,553 @@
         <v>253</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="123" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D123" s="7" t="s">
+    </row>
+    <row r="124" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A124" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="124" ht="16" spans="1:4">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D124" s="7" t="s">
+    </row>
+    <row r="125" ht="16" spans="1:4">
+      <c r="A125" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4556,497 +4562,497 @@
         <v>387</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="1" t="s">
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="8" t="s">
+      <c r="B149" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="C150" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C152" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="D153" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="C154" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="C155" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="D156" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="C157" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
+      <c r="B158" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="C158" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="D160" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="C161" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="C162" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="C163" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D163" s="6" t="s">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="8" t="s">
+      <c r="C164" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5054,55 +5060,55 @@
         <v>495</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>499</v>
+      <c r="B175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C177" s="2" t="s">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C179" s="1">
-        <v>60</v>
-      </c>
-      <c r="D179" s="1">
-        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5113,10 +5119,10 @@
         <v>507</v>
       </c>
       <c r="C180" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D180" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5127,10 +5133,10 @@
         <v>509</v>
       </c>
       <c r="C181" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D181" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5141,10 +5147,10 @@
         <v>511</v>
       </c>
       <c r="C182" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D182" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5155,178 +5161,192 @@
         <v>513</v>
       </c>
       <c r="C183" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D183" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C184" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>516</v>
+      <c r="C184" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2400</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C185" s="10" t="s">
-        <v>519</v>
-      </c>
       <c r="D185" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C186" s="10" t="s">
-        <v>522</v>
-      </c>
       <c r="D186" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C187" s="10" t="s">
-        <v>525</v>
-      </c>
       <c r="D187" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="D188" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="D188" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="190" ht="333" customHeight="1" spans="1:4">
-      <c r="A190" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C189" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="D189" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" ht="333" customHeight="1" spans="1:4">
+      <c r="A191" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="B191" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="191" s="1" customFormat="1" spans="1:4">
-      <c r="A191" s="1" t="s">
+      <c r="C191" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="D191" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" spans="1:4">
       <c r="A192" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C192" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="D192" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" spans="1:4">
       <c r="A193" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="D193" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" spans="1:4">
       <c r="A194" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="D194" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D195" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C195" s="12" t="s">
+    </row>
+    <row r="196" s="1" customFormat="1" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="B196" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1" t="s">
+      <c r="C196" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="D196" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C196" s="12" t="s">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="B197" s="1" t="s">
         <v>556</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="12600"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,50 @@
   </si>
   <si>
     <t>版本</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>RATE_US</t>
+  </si>
+  <si>
+    <t>RATE US</t>
+  </si>
+  <si>
+    <t>RATE_US_CONTENT</t>
+  </si>
+  <si>
+    <t>喜欢我们的游戏吗？
+为我们评分吧。</t>
+  </si>
+  <si>
+    <t>Like our game?
+Please rate us.</t>
+  </si>
+  <si>
+    <t>TAP_STAR_TO_RATE</t>
+  </si>
+  <si>
+    <t>请点击星星评分</t>
+  </si>
+  <si>
+    <t>Tap star to rate</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
   <si>
     <t>UPDATE_RESOURCE</t>
@@ -1710,9 +1754,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1754,16 +1798,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,34 +1828,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1816,30 +1844,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1855,15 +1869,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1876,8 +1890,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1885,7 +1922,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,6 +1941,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1918,7 +1980,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1930,7 +2046,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,103 +2106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,37 +2124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,15 +2151,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2136,17 +2182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2157,6 +2192,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2177,39 +2227,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2221,118 +2265,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2351,14 +2395,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2719,10 +2763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2934,7 +2978,7 @@
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2946,425 +2990,425 @@
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" ht="32" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" ht="16" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="19" ht="16" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
+      <c r="B44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>116</v>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3378,552 +3422,552 @@
         <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+    <row r="57" s="1" customFormat="1" spans="1:4">
+      <c r="A57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>146</v>
+      <c r="D57" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="6" t="s">
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="6" t="s">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="6" t="s">
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="6" t="s">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="6" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="6" t="s">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="6" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="6" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="6" t="s">
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="6" t="s">
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="6" t="s">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="6" t="s">
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3934,7 +3978,7 @@
       <c r="B88" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -3960,10 +4004,10 @@
         <v>246</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>247</v>
@@ -3988,587 +4032,587 @@
         <v>251</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>269</v>
+      <c r="C98" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="124" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D124" s="7" t="s">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="125" ht="16" spans="1:4">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="1" t="s">
+    </row>
+    <row r="129" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A129" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D129" s="1" t="s">
+    </row>
+    <row r="130" ht="16" spans="1:4">
+      <c r="A130" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4576,7 +4620,7 @@
         <v>389</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>390</v>
@@ -4590,7 +4634,7 @@
         <v>392</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>393</v>
@@ -4604,7 +4648,7 @@
         <v>395</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>396</v>
@@ -4618,7 +4662,7 @@
         <v>398</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>399</v>
@@ -4632,721 +4676,791 @@
         <v>401</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>429</v>
+      <c r="A150" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>432</v>
+      <c r="A151" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>435</v>
+      <c r="A152" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B153" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C153" s="8" t="s">
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="8" t="s">
+      <c r="C154" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B158" s="8" t="s">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="B159" s="8" t="s">
         <v>456</v>
       </c>
+      <c r="C159" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="1" t="s">
-        <v>457</v>
+      <c r="A160" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C160" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="C160" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="8" t="s">
         <v>461</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>462</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D161" s="6" t="s">
         <v>463</v>
       </c>
+      <c r="D161" s="1" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="1" t="s">
-        <v>464</v>
+      <c r="A162" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D162" s="6" t="s">
         <v>466</v>
       </c>
+      <c r="D162" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="1" t="s">
-        <v>467</v>
+      <c r="A163" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D163" s="6" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B164" s="8" t="s">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D164" s="6" t="s">
+      <c r="B165" s="8" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" s="9" t="s">
+      <c r="C165" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="D165" s="7" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="A166" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="B166" s="8" t="s">
         <v>476</v>
       </c>
+      <c r="C166" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="A167" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="B167" s="8" t="s">
         <v>479</v>
       </c>
+      <c r="C167" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="A168" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="B168" s="8" t="s">
         <v>482</v>
       </c>
+      <c r="C168" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="A169" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="B169" s="8" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="8" t="s">
+      <c r="C169" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B170" s="1" t="s">
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="8" t="s">
         <v>494</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1" t="s">
-        <v>495</v>
+      <c r="A174" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1" t="s">
-        <v>497</v>
+      <c r="A175" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
-        <v>498</v>
+      <c r="A177" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C180" s="1">
-        <v>60</v>
-      </c>
-      <c r="D180" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C181" s="1">
-        <v>300</v>
-      </c>
-      <c r="D181" s="1">
-        <v>300</v>
+        <v>19</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C182" s="1">
-        <v>600</v>
-      </c>
-      <c r="D182" s="1">
-        <v>600</v>
+        <v>513</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C183" s="1">
+        <v>517</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C185" s="1">
+        <v>60</v>
+      </c>
+      <c r="D185" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C186" s="1">
+        <v>300</v>
+      </c>
+      <c r="D186" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C187" s="1">
+        <v>600</v>
+      </c>
+      <c r="D187" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C188" s="1">
         <v>1200</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D188" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C184" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D184" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="191" ht="333" customHeight="1" spans="1:4">
-      <c r="A191" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>531</v>
       </c>
+      <c r="C190" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="10" t="s">
+        <v>533</v>
+      </c>
       <c r="B191" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="D191" s="11" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="192" s="1" customFormat="1" spans="1:4">
-      <c r="A192" s="1" t="s">
+      <c r="C191" s="10" t="s">
         <v>535</v>
       </c>
+      <c r="D191" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="10" t="s">
+        <v>536</v>
+      </c>
       <c r="B192" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C192" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D192" s="12" t="s">
+      <c r="C192" s="10" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="193" s="1" customFormat="1" spans="1:4">
-      <c r="A193" s="1" t="s">
+      <c r="D192" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="10" t="s">
         <v>539</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="D193" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="10" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="194" s="1" customFormat="1" spans="1:4">
-      <c r="A194" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="D194" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="196" ht="333" customHeight="1" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="B196" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="195" s="1" customFormat="1" spans="1:4">
-      <c r="A195" s="1" t="s">
+      <c r="C196" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D196" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C195" s="12" t="s">
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:4">
+      <c r="A197" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="B197" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="196" s="1" customFormat="1" spans="1:4">
-      <c r="A196" s="1" t="s">
+      <c r="C197" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="D197" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C196" s="12" t="s">
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:4">
+      <c r="A198" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="B198" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
+      <c r="C198" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D198" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C197" s="12" t="s">
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:4">
+      <c r="A199" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="B199" s="1" t="s">
         <v>558</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableLanguage.xlsx
+++ b/DestroyViruses/Assets/Tables/TableLanguage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578">
   <si>
     <t>id</t>
   </si>
@@ -1613,6 +1613,15 @@
     <t>商店5</t>
   </si>
   <si>
+    <t>Shop_vip</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
     <t>Shop_price1</t>
   </si>
   <si>
@@ -1656,6 +1665,12 @@
   </si>
   <si>
     <t>$39.99</t>
+  </si>
+  <si>
+    <t>Shop_vip_price</t>
+  </si>
+  <si>
+    <t>$1.99</t>
   </si>
   <si>
     <t>vipDisclaimer</t>
@@ -1753,9 +1768,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1820,34 +1835,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1856,6 +1847,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1877,7 +1876,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1891,10 +1913,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1906,25 +1936,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1956,13 +1971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,13 +1989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2013,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,25 +2061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,7 +2085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,67 +2115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,26 +2162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2178,6 +2173,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2197,17 +2201,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2227,6 +2227,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2238,124 +2253,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2364,13 +2379,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2763,10 +2778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185:D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -5365,102 +5380,130 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" ht="333" customHeight="1" spans="1:4">
-      <c r="A196" s="1" t="s">
+    <row r="195" spans="1:4">
+      <c r="A195" s="10" t="s">
         <v>545</v>
       </c>
+      <c r="B195" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="10" t="s">
+        <v>548</v>
+      </c>
       <c r="B196" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" spans="1:4">
-      <c r="A197" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D196" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="198" ht="333" customHeight="1" spans="1:4">
+      <c r="A198" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="B198" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="C198" s="11" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="198" s="1" customFormat="1" spans="1:4">
-      <c r="A198" s="1" t="s">
+      <c r="D198" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="D198" s="12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" spans="1:4">
       <c r="A199" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>557</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="1:4">
       <c r="A200" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D200" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" spans="1:4">
       <c r="A201" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="D201" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="B201" s="1" t="s">
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:4">
+      <c r="A202" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="B202" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="C202" s="12" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1" t="s">
+      <c r="D202" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B202" s="1" t="s">
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:4">
+      <c r="A203" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="B203" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="C203" s="12" t="s">
         <v>572</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
